--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AR2_50_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,18 +417,18 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="B2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="B3">
         <v>2008</v>
@@ -436,27 +436,21 @@
       <c r="D3">
         <v>2009</v>
       </c>
-      <c r="E3">
-        <v>0.8905125301442052</v>
-      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="B4">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D4">
-        <v>2009</v>
-      </c>
-      <c r="E4">
-        <v>1.141887928483976</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="B5">
         <v>2009</v>
@@ -467,30 +461,21 @@
       <c r="D5">
         <v>2010</v>
       </c>
-      <c r="E5">
-        <v>-0.4641323501900163</v>
-      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="B6">
-        <v>2009</v>
-      </c>
-      <c r="C6">
-        <v>1.218009596270675</v>
+        <v>2010</v>
       </c>
       <c r="D6">
-        <v>2010</v>
-      </c>
-      <c r="E6">
-        <v>0.4727443609437554</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="B7">
         <v>2010</v>
@@ -501,64 +486,46 @@
       <c r="D7">
         <v>2011</v>
       </c>
-      <c r="E7">
-        <v>0.7953247379026918</v>
-      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="B8">
-        <v>2010</v>
-      </c>
-      <c r="C8">
-        <v>0.5544720893820188</v>
+        <v>2011</v>
       </c>
       <c r="D8">
-        <v>2011</v>
-      </c>
-      <c r="E8">
-        <v>1.249231320663591</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="B9">
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>1.173294700162031</v>
+        <v>1.173294700162053</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
-      <c r="E9">
-        <v>1.205864328335093</v>
-      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="B10">
-        <v>2011</v>
-      </c>
-      <c r="C10">
-        <v>1.173294700162031</v>
+        <v>2012</v>
       </c>
       <c r="D10">
-        <v>2012</v>
-      </c>
-      <c r="E10">
-        <v>1.1299540917866</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="B11">
         <v>2012</v>
@@ -570,29 +537,29 @@
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>1.508698476056081</v>
+        <v>1.1370912555561</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="B12">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C12">
-        <v>1.180518841971723</v>
+        <v>0.9512119708358302</v>
       </c>
       <c r="D12">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E12">
-        <v>0.9276272455014611</v>
+        <v>0.9990492459760025</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="B13">
         <v>2013</v>
@@ -604,29 +571,29 @@
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>1.129954091786578</v>
+        <v>0.9849212343369107</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="B14">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C14">
-        <v>0.9276272455014611</v>
+        <v>1.149724574326472</v>
       </c>
       <c r="D14">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E14">
-        <v>1.30704451907393</v>
+        <v>1.044407816150583</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="B15">
         <v>2014</v>
@@ -638,29 +605,29 @@
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>1.715659375508571</v>
+        <v>1.242282657891813</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="B16">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C16">
-        <v>1.265990289415564</v>
+        <v>1.525861534474027</v>
       </c>
       <c r="D16">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E16">
-        <v>1.578526694644333</v>
+        <v>1.137551461271413</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="B17">
         <v>2015</v>
@@ -672,29 +639,29 @@
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>1.470010055742232</v>
+        <v>1.358051868183585</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="B18">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C18">
-        <v>1.642047742738506</v>
+        <v>1.634644186146694</v>
       </c>
       <c r="D18">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E18">
-        <v>1.725489977756145</v>
+        <v>1.2772981976928</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="B19">
         <v>2016</v>
@@ -706,29 +673,29 @@
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>1.616008876909447</v>
+        <v>1.377345568933785</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="B20">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C20">
-        <v>1.66194179127146</v>
+        <v>1.518308876725216</v>
       </c>
       <c r="D20">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E20">
-        <v>1.501780248496876</v>
+        <v>1.265181861560016</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="B21">
         <v>2017</v>
@@ -740,63 +707,63 @@
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>1.590469215865564</v>
+        <v>1.476362359157601</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="B22">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C22">
-        <v>1.609733807897773</v>
+        <v>1.543729645060155</v>
       </c>
       <c r="D22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E22">
-        <v>1.755561861459198</v>
+        <v>1.300276757748131</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>1.651362568149239</v>
+        <v>1.593309007378396</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>1.769319546243286</v>
+        <v>1.33496666414632</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>1.641178243814534</v>
+        <v>1.625510966833699</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>1.794850390332114</v>
+        <v>1.389880404536159</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="B25">
         <v>2018</v>
@@ -808,63 +775,63 @@
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>1.771972203993366</v>
+        <v>1.451677407676555</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="B26">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C26">
-        <v>1.641178243814534</v>
+        <v>1.40478695938655</v>
       </c>
       <c r="D26">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E26">
-        <v>1.584399974297779</v>
+        <v>1.299747890163894</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>1.436930974076023</v>
+        <v>1.565661119702044</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>1.164871729964068</v>
+        <v>1.412546132271975</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>1.233734107395001</v>
+        <v>1.278716251422285</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>0.9628637208823232</v>
+        <v>0.9547907592929672</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="B29">
         <v>2019</v>
@@ -876,63 +843,63 @@
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>0.6359715250869202</v>
+        <v>0.6182077276742692</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="B30">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C30">
-        <v>1.183163144818633</v>
+        <v>0.5944663954777107</v>
       </c>
       <c r="D30">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E30">
-        <v>0.6125740497801901</v>
+        <v>1.157571511765587</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>-2.611320921915661</v>
+        <v>0.287327989413555</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>3.850129105119438</v>
+        <v>0.9047322996724727</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-3.450801915528212</v>
+        <v>-3.662861831460751</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>4.307664622184548</v>
+        <v>-16.60878031022854</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="B33">
         <v>2020</v>
@@ -944,63 +911,63 @@
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>2.927704432898959</v>
+        <v>-1.655311137157178</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="B34">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C34">
-        <v>-3.662861831460751</v>
+        <v>-2.22608658996023</v>
       </c>
       <c r="D34">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E34">
-        <v>0.3647198962692944</v>
+        <v>0.4768873021284703</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-0.4361073826740891</v>
+        <v>-1.746350382706474</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>7.28622760880111</v>
+        <v>0.7112343933969312</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>0.1757848091566316</v>
+        <v>0.1010915562932313</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>9.515221393159411</v>
+        <v>2.318221029985912</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="B37">
         <v>2021</v>
@@ -1012,63 +979,63 @@
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>9.892324944215902</v>
+        <v>4.631210905746741</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="B38">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C38">
-        <v>0.1010915562932313</v>
+        <v>5.403124048473162</v>
       </c>
       <c r="D38">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E38">
-        <v>6.577442533483757</v>
+        <v>1.332661664932155</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>6.173185202525522</v>
+        <v>5.778434165738466</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>4.358310855341885</v>
+        <v>1.531961367047852</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>6.15369818068785</v>
+        <v>5.793673192389748</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>3.641402330987509</v>
+        <v>1.555532555957284</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="B41">
         <v>2022</v>
@@ -1080,63 +1047,63 @@
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>-1.030443073022624</v>
+        <v>1.066562775371072</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="B42">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C42">
-        <v>5.793673192389748</v>
+        <v>0.2475175776772698</v>
       </c>
       <c r="D42">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E42">
-        <v>-0.4918103610675129</v>
+        <v>1.152334833545998</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.234006599140768</v>
+        <v>-0.2355225117835369</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>1.289162234149188</v>
+        <v>0.8847367780353999</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-0.2922548206748199</v>
+        <v>-0.3788601787194756</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>1.658286804611153</v>
+        <v>0.6685736991727698</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="B45">
         <v>2023</v>
@@ -1148,63 +1115,63 @@
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>1.096154841579633</v>
+        <v>0.4316736535407095</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="B46">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C46">
-        <v>-0.3788601787194756</v>
+        <v>0.2920226091170486</v>
       </c>
       <c r="D46">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E46">
-        <v>0.5341373531255966</v>
+        <v>1.085023935653551</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>0.3834998555659386</v>
+        <v>0.1363842982220032</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>1.938634904219727</v>
+        <v>0.9899450936446508</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>0.1450123585129193</v>
+        <v>0.05771202657300911</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>1.660123065973873</v>
+        <v>0.866426166328349</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="B49">
         <v>2024</v>
@@ -1216,75 +1183,58 @@
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>1.206367397320696</v>
+        <v>0.8173856700710358</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="B50">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C50">
-        <v>0.05771202657300911</v>
+        <v>0.7215465982331359</v>
       </c>
       <c r="D50">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E50">
-        <v>0.8226227460387703</v>
+        <v>1.026748659687282</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.6741729974461208</v>
+        <v>0.678264046940269</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.6176776338479684</v>
+        <v>1.007646955063968</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45800</v>
+        <v>45891</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.6213128948874713</v>
+        <v>0.6062046309774693</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>0.5837874231427564</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2">
-        <v>45891</v>
-      </c>
-      <c r="B53">
-        <v>2025</v>
-      </c>
-      <c r="C53">
-        <v>0.6062046309774693</v>
-      </c>
-      <c r="D53">
-        <v>2026</v>
-      </c>
-      <c r="E53">
-        <v>0.5310616179077465</v>
+        <v>0.8985052439231866</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AR2_50_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,18 +417,21 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39583</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>0.4235526809466261</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="D2">
-        <v>2009</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>39583</v>
       </c>
       <c r="B3">
         <v>2008</v>
@@ -439,802 +442,840 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39948</v>
+        <v>39765</v>
       </c>
       <c r="B4">
+        <v>2008</v>
+      </c>
+      <c r="C4">
+        <v>-0.571807692896309</v>
+      </c>
+      <c r="D4">
         <v>2009</v>
-      </c>
-      <c r="D4">
-        <v>2010</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40130</v>
+        <v>39948</v>
       </c>
       <c r="B5">
         <v>2009</v>
       </c>
-      <c r="C5">
-        <v>1.218009596270675</v>
-      </c>
       <c r="D5">
         <v>2010</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40310</v>
+        <v>40130</v>
       </c>
       <c r="B6">
+        <v>2009</v>
+      </c>
+      <c r="C6">
+        <v>0.3486139762224783</v>
+      </c>
+      <c r="D6">
         <v>2010</v>
-      </c>
-      <c r="D6">
-        <v>2011</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40494</v>
+        <v>40310</v>
       </c>
       <c r="B7">
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>0.5544720893820188</v>
+        <v>-1.0538757111625</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
+      <c r="E7">
+        <v>-0.03775702182785556</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40676</v>
+        <v>40494</v>
       </c>
       <c r="B8">
+        <v>2010</v>
+      </c>
+      <c r="C8">
+        <v>-0.1384957661262898</v>
+      </c>
+      <c r="D8">
         <v>2011</v>
       </c>
-      <c r="D8">
-        <v>2012</v>
+      <c r="E8">
+        <v>0.592211799485276</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40862</v>
+        <v>40676</v>
       </c>
       <c r="B9">
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>1.173294700162053</v>
+        <v>1.570920254756558</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
+      <c r="E9">
+        <v>0.485781149991249</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41044</v>
+        <v>40862</v>
       </c>
       <c r="B10">
+        <v>2011</v>
+      </c>
+      <c r="C10">
+        <v>1.566479473280147</v>
+      </c>
+      <c r="D10">
         <v>2012</v>
       </c>
-      <c r="D10">
-        <v>2013</v>
+      <c r="E10">
+        <v>0.5295895589954247</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41228</v>
+        <v>41044</v>
       </c>
       <c r="B11">
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>1.180518841971723</v>
+        <v>0.878183952843048</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>1.1370912555561</v>
+        <v>0.6274179984581574</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41409</v>
+        <v>41228</v>
       </c>
       <c r="B12">
+        <v>2012</v>
+      </c>
+      <c r="C12">
+        <v>0.7307568962936939</v>
+      </c>
+      <c r="D12">
         <v>2013</v>
       </c>
-      <c r="C12">
-        <v>0.9512119708358302</v>
-      </c>
-      <c r="D12">
-        <v>2014</v>
-      </c>
       <c r="E12">
-        <v>0.9990492459760025</v>
+        <v>0.5955791956549161</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41592</v>
+        <v>41409</v>
       </c>
       <c r="B13">
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>0.9276272455014611</v>
+        <v>0.4413109953541605</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>0.9849212343369107</v>
+        <v>0.6943226143418357</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41774</v>
+        <v>41592</v>
       </c>
       <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14">
+        <v>0.818818812164257</v>
+      </c>
+      <c r="D14">
         <v>2014</v>
       </c>
-      <c r="C14">
-        <v>1.149724574326472</v>
-      </c>
-      <c r="D14">
-        <v>2015</v>
-      </c>
       <c r="E14">
-        <v>1.044407816150583</v>
+        <v>0.9193568360546411</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41957</v>
+        <v>41774</v>
       </c>
       <c r="B15">
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>1.265990289415564</v>
+        <v>0.9083436352771646</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>1.242282657891813</v>
+        <v>0.8175300924317952</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>42137</v>
+        <v>41957</v>
       </c>
       <c r="B16">
+        <v>2014</v>
+      </c>
+      <c r="C16">
+        <v>0.9180054319587239</v>
+      </c>
+      <c r="D16">
         <v>2015</v>
       </c>
-      <c r="C16">
-        <v>1.525861534474027</v>
-      </c>
-      <c r="D16">
-        <v>2016</v>
-      </c>
       <c r="E16">
-        <v>1.137551461271413</v>
+        <v>0.9697679806505821</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42321</v>
+        <v>42137</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>1.642047742738506</v>
+        <v>1.93704103170067</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>1.358051868183585</v>
+        <v>0.8819846436028733</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42503</v>
+        <v>42321</v>
       </c>
       <c r="B18">
+        <v>2015</v>
+      </c>
+      <c r="C18">
+        <v>1.984684278296656</v>
+      </c>
+      <c r="D18">
         <v>2016</v>
       </c>
-      <c r="C18">
-        <v>1.634644186146694</v>
-      </c>
-      <c r="D18">
-        <v>2017</v>
-      </c>
       <c r="E18">
-        <v>1.2772981976928</v>
+        <v>0.970573649360662</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42689</v>
+        <v>42503</v>
       </c>
       <c r="B19">
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>1.66194179127146</v>
+        <v>1.58745197360306</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>1.377345568933785</v>
+        <v>0.9174072565958813</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42867</v>
+        <v>42689</v>
       </c>
       <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20">
+        <v>1.755995812646982</v>
+      </c>
+      <c r="D20">
         <v>2017</v>
       </c>
-      <c r="C20">
-        <v>1.518308876725216</v>
-      </c>
-      <c r="D20">
-        <v>2018</v>
-      </c>
       <c r="E20">
-        <v>1.265181861560016</v>
+        <v>1.083941060573212</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>43053</v>
+        <v>42867</v>
       </c>
       <c r="B21">
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>1.609733807897773</v>
+        <v>1.276746817047392</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>1.476362359157601</v>
+        <v>0.9840692158344266</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43145</v>
+        <v>43053</v>
       </c>
       <c r="B22">
+        <v>2017</v>
+      </c>
+      <c r="C22">
+        <v>1.946965557828384</v>
+      </c>
+      <c r="D22">
         <v>2018</v>
       </c>
-      <c r="C22">
-        <v>1.543729645060155</v>
-      </c>
-      <c r="D22">
-        <v>2019</v>
-      </c>
       <c r="E22">
-        <v>1.300276757748131</v>
+        <v>1.343559319682996</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43235</v>
+        <v>43145</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>1.593309007378396</v>
+        <v>0.9903126026122644</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>1.33496666414632</v>
+        <v>1.080096276728471</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43326</v>
+        <v>43235</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>1.625510966833699</v>
+        <v>1.116346046342809</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>1.389880404536159</v>
+        <v>1.076386909629967</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43418</v>
+        <v>43326</v>
       </c>
       <c r="B25">
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>1.641178243814534</v>
+        <v>1.219509802703822</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>1.451677407676555</v>
+        <v>1.125010763074807</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43510</v>
+        <v>43418</v>
       </c>
       <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26">
+        <v>1.06432145354225</v>
+      </c>
+      <c r="D26">
         <v>2019</v>
       </c>
-      <c r="C26">
-        <v>1.40478695938655</v>
-      </c>
-      <c r="D26">
-        <v>2020</v>
-      </c>
       <c r="E26">
-        <v>1.299747890163894</v>
+        <v>0.8791375467670726</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43600</v>
+        <v>43510</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>1.565661119702044</v>
+        <v>0.5566732908481198</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>1.412546132271975</v>
+        <v>0.9336434107631186</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43691</v>
+        <v>43600</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>1.278716251422285</v>
+        <v>1.437659299153027</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>0.9547907592929672</v>
+        <v>1.280675138581411</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43783</v>
+        <v>43691</v>
       </c>
       <c r="B29">
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>1.183163144818633</v>
+        <v>1.315960672561256</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>0.6182077276742692</v>
+        <v>1.194139179128939</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43875</v>
+        <v>43783</v>
       </c>
       <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30">
+        <v>1.361817904277696</v>
+      </c>
+      <c r="D30">
         <v>2020</v>
       </c>
-      <c r="C30">
-        <v>0.5944663954777107</v>
-      </c>
-      <c r="D30">
-        <v>2021</v>
-      </c>
       <c r="E30">
-        <v>1.157571511765587</v>
+        <v>1.226035857429442</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43966</v>
+        <v>43875</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>0.287327989413555</v>
+        <v>1.08139044988087</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>0.9047322996724727</v>
+        <v>1.151701057323207</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>44068</v>
+        <v>43966</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-3.662861831460751</v>
+        <v>-1.741236505435428</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>-16.60878031022854</v>
+        <v>-0.2374583495023508</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44159</v>
+        <v>44068</v>
       </c>
       <c r="B33">
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-3.662861831460751</v>
+        <v>-5.210209911466245</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-1.655311137157178</v>
+        <v>-0.6076997714017818</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44251</v>
+        <v>44159</v>
       </c>
       <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34">
+        <v>-4.352425014431304</v>
+      </c>
+      <c r="D34">
         <v>2021</v>
       </c>
-      <c r="C34">
-        <v>-2.22608658996023</v>
-      </c>
-      <c r="D34">
-        <v>2022</v>
-      </c>
       <c r="E34">
-        <v>0.4768873021284703</v>
+        <v>-1.242805832929039</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44341</v>
+        <v>44251</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-1.746350382706474</v>
+        <v>-2.740233405906423</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>0.7112343933969312</v>
+        <v>0.509185690804248</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44432</v>
+        <v>44341</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>0.1010915562932313</v>
+        <v>-3.281345655000223</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>2.318221029985912</v>
+        <v>-0.1411395765833157</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44525</v>
+        <v>44432</v>
       </c>
       <c r="B37">
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>0.1010915562932313</v>
+        <v>-1.897775264882628</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>4.631210905746741</v>
+        <v>0.6993852707122938</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44617</v>
+        <v>44525</v>
       </c>
       <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38">
+        <v>-1.761645650979182</v>
+      </c>
+      <c r="D38">
         <v>2022</v>
       </c>
-      <c r="C38">
-        <v>5.403124048473162</v>
-      </c>
-      <c r="D38">
-        <v>2023</v>
-      </c>
       <c r="E38">
-        <v>1.332661664932155</v>
+        <v>3.46909983288044</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44706</v>
+        <v>44617</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>5.778434165738466</v>
+        <v>3.920818017292138</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>1.531961367047852</v>
+        <v>1.110570829887347</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44798</v>
+        <v>44706</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>5.793673192389748</v>
+        <v>4.407642498961351</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>1.555532555957284</v>
+        <v>1.101211681542535</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44890</v>
+        <v>44798</v>
       </c>
       <c r="B41">
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>5.793673192389748</v>
+        <v>4.787836378515364</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>1.066562775371072</v>
+        <v>1.219524838989372</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44981</v>
+        <v>44890</v>
       </c>
       <c r="B42">
+        <v>2022</v>
+      </c>
+      <c r="C42">
+        <v>5.20787683103745</v>
+      </c>
+      <c r="D42">
         <v>2023</v>
       </c>
-      <c r="C42">
-        <v>0.2475175776772698</v>
-      </c>
-      <c r="D42">
-        <v>2024</v>
-      </c>
       <c r="E42">
-        <v>1.152334833545998</v>
+        <v>1.517423464826884</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45071</v>
+        <v>44981</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.2355225117835369</v>
+        <v>0.04995351332486297</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>0.8847367780353999</v>
+        <v>0.861118176709641</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45163</v>
+        <v>45071</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-0.3788601787194756</v>
+        <v>-1.129337961135779</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>0.6685736991727698</v>
+        <v>0.5661352122229735</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45254</v>
+        <v>45163</v>
       </c>
       <c r="B45">
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-0.3788601787194756</v>
+        <v>-0.49899188013105</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>0.4316736535407095</v>
+        <v>0.6655557872750961</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45345</v>
+        <v>45254</v>
       </c>
       <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>-0.9008525709169546</v>
+      </c>
+      <c r="D46">
         <v>2024</v>
       </c>
-      <c r="C46">
-        <v>0.2920226091170486</v>
-      </c>
-      <c r="D46">
-        <v>2025</v>
-      </c>
       <c r="E46">
-        <v>1.085023935653551</v>
+        <v>0.2090788898015949</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45436</v>
+        <v>45345</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>0.1363842982220032</v>
+        <v>0.4162071511232046</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>0.9899450936446508</v>
+        <v>0.7845554863595172</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45534</v>
+        <v>45436</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>0.05771202657300911</v>
+        <v>0.2034622429862187</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>0.866426166328349</v>
+        <v>0.6701250445558804</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45618</v>
+        <v>45534</v>
       </c>
       <c r="B49">
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>0.05771202657300911</v>
+        <v>0.5084754301873051</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.8173856700710358</v>
+        <v>0.7125770617453231</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45713</v>
+        <v>45618</v>
       </c>
       <c r="B50">
+        <v>2024</v>
+      </c>
+      <c r="C50">
+        <v>0.2738544794132824</v>
+      </c>
+      <c r="D50">
         <v>2025</v>
       </c>
-      <c r="C50">
-        <v>0.7215465982331359</v>
-      </c>
-      <c r="D50">
-        <v>2026</v>
-      </c>
       <c r="E50">
-        <v>1.026748659687282</v>
+        <v>0.5362040463673612</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45800</v>
+        <v>45713</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.678264046940269</v>
+        <v>0.5222112282702973</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>1.007646955063968</v>
+        <v>0.8164751105439905</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45891</v>
+        <v>45800</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.6062046309774693</v>
+        <v>0.9632017291179906</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>0.8985052439231866</v>
+        <v>0.8649794511895736</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B53">
+        <v>2025</v>
+      </c>
+      <c r="C53">
+        <v>0.9584581489103794</v>
+      </c>
+      <c r="D53">
+        <v>2026</v>
+      </c>
+      <c r="E53">
+        <v>0.8209425653958213</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AR2_50_9_full.xlsx
@@ -929,13 +929,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-5.210209911466245</v>
+        <v>-11.35433171961127</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-0.6076997714017818</v>
+        <v>-86.41378142719947</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -952,7 +952,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>-1.242805832929039</v>
+        <v>-1.222056059052401</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -963,13 +963,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-2.740233405906423</v>
+        <v>-2.083284801880281</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>0.509185690804248</v>
+        <v>0.7205250207272362</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -980,13 +980,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-3.281345655000223</v>
+        <v>-2.829585457923245</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>-0.1411395765833157</v>
+        <v>-0.02600701460458987</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -997,13 +997,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>-1.897775264882628</v>
+        <v>-3.267557970931712</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>0.6993852707122938</v>
+        <v>-0.1236387062395816</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,7 +1020,7 @@
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>3.46909983288044</v>
+        <v>0.6980411378030738</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1031,13 +1031,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>3.920818017292138</v>
+        <v>2.963427100546601</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>1.110570829887347</v>
+        <v>0.78690676136004</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1048,13 +1048,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>4.407642498961351</v>
+        <v>4.274815646690633</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>1.101211681542535</v>
+        <v>1.067796713188396</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1065,13 +1065,13 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>4.787836378515364</v>
+        <v>4.760338476399095</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>1.219524838989372</v>
+        <v>1.198244109302982</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,7 +1088,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>1.517423464826884</v>
+        <v>1.605691900741069</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1099,13 +1099,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>0.04995351332486297</v>
+        <v>0.7301796754034084</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>0.861118176709641</v>
+        <v>1.100969582771905</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1116,13 +1116,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-1.129337961135779</v>
+        <v>-0.3620058052652531</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>0.5661352122229735</v>
+        <v>0.8526129829289797</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1133,13 +1133,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-0.49899188013105</v>
+        <v>-0.414516479176652</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>0.6655557872750961</v>
+        <v>0.8038408582027534</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1156,7 +1156,7 @@
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>0.2090788898015949</v>
+        <v>0.4115388134666942</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1167,13 +1167,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>0.4162071511232046</v>
+        <v>0.5049100239511883</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>0.7845554863595172</v>
+        <v>0.8138146925835477</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1184,13 +1184,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>0.2034622429862187</v>
+        <v>0.352566175393898</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>0.6701250445558804</v>
+        <v>0.7200685864094503</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1201,13 +1201,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>0.5084754301873051</v>
+        <v>0.5764596341398587</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.7125770617453231</v>
+        <v>0.7779893081418576</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1224,7 +1224,7 @@
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>0.5362040463673612</v>
+        <v>0.6247505135484666</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1235,13 +1235,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.5222112282702973</v>
+        <v>0.5923184148079574</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.8164751105439905</v>
+        <v>0.8307144575629977</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1252,13 +1252,13 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.9632017291179906</v>
+        <v>0.9127736322763536</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>0.8649794511895736</v>
+        <v>0.8664788249411304</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1269,13 +1269,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>0.9584581489103794</v>
+        <v>0.9763219302888704</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>0.8209425653958213</v>
+        <v>0.8639434569707394</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AR2_50_9_full.xlsx
@@ -422,9 +422,6 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>0.4235526809466261</v>
-      </c>
       <c r="D2">
         <v>2008</v>
       </c>
@@ -447,9 +444,6 @@
       <c r="B4">
         <v>2008</v>
       </c>
-      <c r="C4">
-        <v>-0.571807692896309</v>
-      </c>
       <c r="D4">
         <v>2009</v>
       </c>
@@ -473,7 +467,7 @@
         <v>2009</v>
       </c>
       <c r="C6">
-        <v>0.3486139762224783</v>
+        <v>0.348613976222456</v>
       </c>
       <c r="D6">
         <v>2010</v>
@@ -493,7 +487,7 @@
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>-0.03775702182785556</v>
+        <v>-0.03775702182786667</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -504,13 +498,13 @@
         <v>2010</v>
       </c>
       <c r="C8">
-        <v>-0.1384957661262898</v>
+        <v>-0.1384957661262676</v>
       </c>
       <c r="D8">
         <v>2011</v>
       </c>
       <c r="E8">
-        <v>0.592211799485276</v>
+        <v>0.5922117994852982</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -521,13 +515,13 @@
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>1.570920254756558</v>
+        <v>1.570920254756514</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>0.485781149991249</v>
+        <v>0.4857811499912712</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -538,13 +532,13 @@
         <v>2011</v>
       </c>
       <c r="C10">
-        <v>1.566479473280147</v>
+        <v>1.566479473280191</v>
       </c>
       <c r="D10">
         <v>2012</v>
       </c>
       <c r="E10">
-        <v>0.5295895589954247</v>
+        <v>0.5295895589954469</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -561,7 +555,7 @@
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>0.6274179984581574</v>
+        <v>0.6274179984581796</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -572,7 +566,7 @@
         <v>2012</v>
       </c>
       <c r="C12">
-        <v>0.7307568962936939</v>
+        <v>0.7307568962937161</v>
       </c>
       <c r="D12">
         <v>2013</v>
@@ -606,7 +600,7 @@
         <v>2013</v>
       </c>
       <c r="C14">
-        <v>0.818818812164257</v>
+        <v>0.8188188121642126</v>
       </c>
       <c r="D14">
         <v>2014</v>
@@ -623,13 +617,13 @@
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>0.9083436352771646</v>
+        <v>0.9083436352771868</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>0.8175300924317952</v>
+        <v>0.8175300924318174</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,7 +640,7 @@
         <v>2015</v>
       </c>
       <c r="E16">
-        <v>0.9697679806505821</v>
+        <v>0.9697679806506043</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -674,7 +668,7 @@
         <v>2015</v>
       </c>
       <c r="C18">
-        <v>1.984684278296656</v>
+        <v>1.9846842782967</v>
       </c>
       <c r="D18">
         <v>2016</v>
@@ -697,7 +691,7 @@
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>0.9174072565958813</v>
+        <v>0.9174072565959035</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -714,7 +708,7 @@
         <v>2017</v>
       </c>
       <c r="E20">
-        <v>1.083941060573212</v>
+        <v>1.083941060573257</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -725,7 +719,7 @@
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>1.276746817047392</v>
+        <v>1.276746817047369</v>
       </c>
       <c r="D21">
         <v>2018</v>
@@ -759,7 +753,7 @@
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>0.9903126026122644</v>
+        <v>0.9903126026122866</v>
       </c>
       <c r="D23">
         <v>2019</v>
@@ -776,7 +770,7 @@
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>1.116346046342809</v>
+        <v>1.116346046342831</v>
       </c>
       <c r="D24">
         <v>2019</v>
@@ -793,7 +787,7 @@
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>1.219509802703822</v>
+        <v>1.219509802703866</v>
       </c>
       <c r="D25">
         <v>2019</v>
@@ -810,13 +804,13 @@
         <v>2018</v>
       </c>
       <c r="C26">
-        <v>1.06432145354225</v>
+        <v>1.064321453542272</v>
       </c>
       <c r="D26">
         <v>2019</v>
       </c>
       <c r="E26">
-        <v>0.8791375467670726</v>
+        <v>0.8791375467670504</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -827,7 +821,7 @@
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>0.5566732908481198</v>
+        <v>0.556673290848142</v>
       </c>
       <c r="D27">
         <v>2020</v>
@@ -850,7 +844,7 @@
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>1.280675138581411</v>
+        <v>1.280675138581389</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -867,7 +861,7 @@
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>1.194139179128939</v>
+        <v>1.194139179128917</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -878,13 +872,13 @@
         <v>2019</v>
       </c>
       <c r="C30">
-        <v>1.361817904277696</v>
+        <v>1.361817904277718</v>
       </c>
       <c r="D30">
         <v>2020</v>
       </c>
       <c r="E30">
-        <v>1.226035857429442</v>
+        <v>1.226035857429419</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -895,7 +889,7 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>1.08139044988087</v>
+        <v>1.081390449880848</v>
       </c>
       <c r="D31">
         <v>2021</v>
@@ -912,13 +906,13 @@
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-1.741236505435428</v>
+        <v>-1.741236505435417</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>-0.2374583495023508</v>
+        <v>-0.2374583495023397</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -929,7 +923,7 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-11.35433171961127</v>
+        <v>-11.35433171961128</v>
       </c>
       <c r="D33">
         <v>2021</v>
@@ -946,13 +940,13 @@
         <v>2020</v>
       </c>
       <c r="C34">
-        <v>-4.352425014431304</v>
+        <v>-4.352425014431327</v>
       </c>
       <c r="D34">
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>-1.222056059052401</v>
+        <v>-1.222056059052357</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -963,13 +957,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-2.083284801880281</v>
+        <v>-2.083284801880303</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>0.7205250207272362</v>
+        <v>0.7205250207272584</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -986,7 +980,7 @@
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>-0.02600701460458987</v>
+        <v>-0.02600701460454546</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1003,7 +997,7 @@
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>-0.1236387062395816</v>
+        <v>-0.1236387062395705</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,7 +1014,7 @@
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>0.6980411378030738</v>
+        <v>0.6980411378030515</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1037,7 +1031,7 @@
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>0.78690676136004</v>
+        <v>0.7869067613600622</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1048,13 +1042,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>4.274815646690633</v>
+        <v>4.274815646690611</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>1.067796713188396</v>
+        <v>1.067796713188418</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1071,7 +1065,7 @@
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>1.198244109302982</v>
+        <v>1.198244109302959</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,7 +1082,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>1.605691900741069</v>
+        <v>1.605691900741091</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1105,7 +1099,7 @@
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>1.100969582771905</v>
+        <v>1.10096958277186</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1133,13 +1127,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-0.414516479176652</v>
+        <v>-0.4145164791766631</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>0.8038408582027534</v>
+        <v>0.8038408582027312</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1150,7 +1144,7 @@
         <v>2023</v>
       </c>
       <c r="C46">
-        <v>-0.9008525709169546</v>
+        <v>-0.9008525709169657</v>
       </c>
       <c r="D46">
         <v>2024</v>
@@ -1167,7 +1161,7 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>0.5049100239511883</v>
+        <v>0.5049100239512105</v>
       </c>
       <c r="D47">
         <v>2025</v>
@@ -1190,7 +1184,7 @@
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>0.7200685864094503</v>
+        <v>0.7200685864094281</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1201,13 +1195,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>0.5764596341398587</v>
+        <v>0.5764596341398365</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.7779893081418576</v>
+        <v>0.7779893081418798</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1218,13 +1212,13 @@
         <v>2024</v>
       </c>
       <c r="C50">
-        <v>0.2738544794132824</v>
+        <v>0.2738544794132602</v>
       </c>
       <c r="D50">
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>0.6247505135484666</v>
+        <v>0.6247505135484221</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1235,7 +1229,7 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.5923184148079574</v>
+        <v>0.5923184148080018</v>
       </c>
       <c r="D51">
         <v>2026</v>
@@ -1275,7 +1269,7 @@
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>0.8639434569707394</v>
+        <v>0.8639434569707616</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AR2_50_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1272,6 +1272,23 @@
         <v>0.8639434569707616</v>
       </c>
     </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B54">
+        <v>2025</v>
+      </c>
+      <c r="C54">
+        <v>0.8976398032236155</v>
+      </c>
+      <c r="D54">
+        <v>2026</v>
+      </c>
+      <c r="E54">
+        <v>0.7456737245741252</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
